--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-parent-organization-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-parent-organization-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>This extension specifies a list of organizations by membership in a parent organization by identifier and their role by coding for resouce read access.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,7 +247,10 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -261,6 +261,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -286,10 +289,16 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -359,9 +368,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:parentOrganization.value[x]</t>
   </si>
   <si>
@@ -465,7 +471,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -553,7 +559,7 @@
     <t>Extension.extension.value[x].assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -950,57 +956,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1008,18 +1012,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1038,163 +1042,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.82421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.1953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="147.375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1202,25 +1206,25 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>78</v>
@@ -1274,13 +1278,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>79</v>
@@ -1289,15 +1293,15 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1305,10 +1309,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1320,13 +1324,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1377,13 +1381,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1392,15 +1396,15 @@
         <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1408,11 +1412,11 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1423,13 +1427,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1468,25 +1472,25 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1500,23 +1504,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1528,13 +1532,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1585,13 +1589,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH5" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1605,10 +1609,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1616,10 +1620,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1631,13 +1635,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1688,13 +1692,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1703,27 +1707,27 @@
         <v>20</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
       </c>
@@ -1734,16 +1738,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1781,25 +1785,25 @@
         <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1808,15 +1812,15 @@
         <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1824,10 +1828,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1839,16 +1843,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1856,7 +1860,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>20</v>
@@ -1898,13 +1902,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1913,15 +1917,15 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1929,10 +1933,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1944,13 +1948,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2001,30 +2005,30 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2032,10 +2036,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2047,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2104,13 +2108,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -2119,27 +2123,27 @@
         <v>20</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2150,16 +2154,16 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2197,25 +2201,25 @@
         <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -2224,15 +2228,15 @@
         <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2240,34 +2244,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2292,13 +2296,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2316,30 +2320,30 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2347,10 +2351,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2359,22 +2363,22 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2399,13 +2403,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2423,30 +2427,30 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2454,10 +2458,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2466,35 +2470,35 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>20</v>
@@ -2530,30 +2534,30 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2561,10 +2565,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2573,19 +2577,19 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2599,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>20</v>
@@ -2635,30 +2639,30 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2666,10 +2670,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2678,16 +2682,16 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2738,30 +2742,30 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2769,10 +2773,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2781,19 +2785,19 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2843,43 +2847,43 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2891,13 +2895,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2948,13 +2952,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2968,10 +2972,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2979,10 +2983,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2994,13 +2998,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3051,13 +3055,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -3066,27 +3070,27 @@
         <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3097,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3144,25 +3148,25 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3171,15 +3175,15 @@
         <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3187,10 +3191,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3202,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3219,7 +3223,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>20</v>
@@ -3261,13 +3265,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -3276,15 +3280,15 @@
         <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3292,10 +3296,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3307,13 +3311,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3364,30 +3368,30 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3395,10 +3399,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3410,13 +3414,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3467,13 +3471,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3482,27 +3486,27 @@
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
@@ -3513,16 +3517,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3560,25 +3564,25 @@
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -3587,15 +3591,15 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3603,10 +3607,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3615,22 +3619,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -3679,30 +3683,30 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3710,10 +3714,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3722,19 +3726,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3784,30 +3788,30 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3815,10 +3819,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -3827,20 +3831,20 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -3889,30 +3893,30 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3920,10 +3924,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -3932,20 +3936,20 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -3994,30 +3998,30 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4025,10 +4029,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4037,22 +4041,22 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4101,30 +4105,30 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4132,10 +4136,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4147,16 +4151,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4206,13 +4210,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -4221,15 +4225,15 @@
         <v>20</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4237,10 +4241,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4252,13 +4256,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4309,22 +4313,22 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-parent-organization-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-read-access-parent-organization-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
